--- a/testData/muleguard-reports/rakstestmuleapi_config_20251128/report.xlsx
+++ b/testData/muleguard-reports/rakstestmuleapi_config_20251128/report.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="24">
   <si>
     <t>Rule ID</t>
   </si>
@@ -53,15 +53,15 @@
     <t>FAIL</t>
   </si>
   <si>
-    <t>• Missing required properties in files:
-• Property 'LogJsonFormat' not found in file: Properties/OCP/TDV.properties
-• Property 'anotherpropertycheck' not found in file: Properties/OCP/TDV.properties
-• Property 'anotherpropertycheck' not found in file: Properties/OCP/PROD.properties
-• Property 'LogJsonFormat' not found in file: Properties/OCP/01/TDV.properties
-• Property 'anotherpropertycheck' not found in file: Properties/OCP/01/TDV.properties
-• Property 'anotherpropertycheck' not found in file: Properties/OCP/01/PROD.properties
-• Property 'anotherpropertycheck' not found in file: Properties/OCP/01/ITE.properties
-• Property 'anotherpropertycheck' not found in file: Properties/OCP/ITE.properties</t>
+    <t>• Validation failures:
+• Property 'anotherpropertycheck' not found in file: Properties\OCP\01\ITE.properties
+• Property 'anotherpropertycheck' not found in file: Properties\OCP\01\PROD.properties
+• Property 'LogJsonFormat' not found in file: Properties\OCP\01\TDV.properties
+• Property 'anotherpropertycheck' not found in file: Properties\OCP\01\TDV.properties
+• Property 'anotherpropertycheck' not found in file: Properties\OCP\ITE.properties
+• Property 'anotherpropertycheck' not found in file: Properties\OCP\PROD.properties
+• Property 'LogJsonFormat' not found in file: Properties\OCP\TDV.properties
+• Property 'anotherpropertycheck' not found in file: Properties\OCP\TDV.properties</t>
   </si>
   <si>
     <t>RULE-102</t>
@@ -70,8 +70,44 @@
     <t>Check for required policy properties</t>
   </si>
   <si>
-    <t>• Missing required properties in files:
-• Property 'rakspolicyproperty2.policypropname' not found in file: Policies/TDV.policy</t>
+    <t>• Validation failures:
+• Property 'rakspolicyproperty2.policypropname' not found in file: Policies\TDV.policy</t>
+  </si>
+  <si>
+    <t>RULE-103</t>
+  </si>
+  <si>
+    <t>Validate policy files for correct policy details</t>
+  </si>
+  <si>
+    <t>• Validation failures:
+• Pattern 'headerinjection.policy.applied=true' not matched in file: Policies\TDV.policy
+• Pattern 'headerinjection.policy.version=1.3.2' not matched in file: Policies\TDV.policy
+• Pattern 'ratelimit.policy.applied=true' not matched in file: Policies\TDV.policy
+• Pattern 'ratelimit.policy.version=1.4.2' not matched in file: Policies\TDV.policy
+• Pattern 'truist.compositeauthn.policy.applied=true' not matched in file: Policies\TDV.policy
+• Pattern 'truist.compositeauthn.policy.version=3.0.0' not matched in file: Policies\TDV.policy
+• Pattern 'truist.authz.policy.applied=true' not matched in file: Policies\TDV.policy
+• Pattern 'truist.authz.policy.version=3.0.0' not matched in file: Policies\TDV.policy</t>
+  </si>
+  <si>
+    <t>RULE-104</t>
+  </si>
+  <si>
+    <t>Validate properties files for correct property details</t>
+  </si>
+  <si>
+    <t>MEDIUM</t>
+  </si>
+  <si>
+    <t>• No valid properties matching the SECURE pattern found in environment files.
+Files scanned: Properties\OCP\01\ITE.properties, Properties\OCP\01\PROD.properties, Properties\OCP\01\TDV.properties, Properties\OCP\ITE.properties, Properties\OCP\PROD.properties, Properties\OCP\TDV.properties
+Expected pattern: secure::&lt;name&gt;=^{&lt;encrypted-value&gt;=}
+Check that your files contain the required properties with correct format.
+• No valid properties matching the CLIENTIDMAP pattern found in environment files.
+Files scanned: Policies\TDV.policy
+Expected pattern: truist.authz.policy.clientIDmap.&lt;METHOD&gt;:/&lt;path&gt;=&lt;id&gt;:&lt;name&gt;;&lt;id&gt;:&lt;name&gt;;...
+Check that your files contain the required properties with correct format.</t>
   </si>
 </sst>
 </file>
@@ -155,17 +191,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="8.55859375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="30.609375" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="7.41015625" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="5.97265625" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="68.37109375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="8.6640625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="42.18359375" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="8.24609375" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="6.06640625" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="178.54296875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -236,6 +272,40 @@
         <v>16</v>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" t="s" s="3">
+        <v>17</v>
+      </c>
+      <c r="B5" t="s" s="3">
+        <v>18</v>
+      </c>
+      <c r="C5" t="s" s="3">
+        <v>7</v>
+      </c>
+      <c r="D5" t="s" s="3">
+        <v>12</v>
+      </c>
+      <c r="E5" t="s" s="3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="3">
+        <v>20</v>
+      </c>
+      <c r="B6" t="s" s="3">
+        <v>21</v>
+      </c>
+      <c r="C6" t="s" s="3">
+        <v>22</v>
+      </c>
+      <c r="D6" t="s" s="3">
+        <v>12</v>
+      </c>
+      <c r="E6" t="s" s="3">
+        <v>23</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/testData/muleguard-reports/rakstestmuleapi_config_20251128/report.xlsx
+++ b/testData/muleguard-reports/rakstestmuleapi_config_20251128/report.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="29">
   <si>
     <t>Rule ID</t>
   </si>
@@ -29,36 +29,61 @@
     <t>Details</t>
   </si>
   <si>
+    <t>RULE-105</t>
+  </si>
+  <si>
+    <t>Optional name-value check for .properties files</t>
+  </si>
+  <si>
+    <t>HIGH</t>
+  </si>
+  <si>
+    <t>PASS</t>
+  </si>
+  <si>
+    <t>All checks passed</t>
+  </si>
+  <si>
+    <t>RULE-106</t>
+  </si>
+  <si>
+    <t>Optional name-value check for .policy files</t>
+  </si>
+  <si>
     <t>RULE-100</t>
   </si>
   <si>
-    <t>Generic Config Check</t>
-  </si>
-  <si>
-    <t>HIGH</t>
-  </si>
-  <si>
-    <t>PASS</t>
-  </si>
-  <si>
-    <t>All checks passed</t>
+    <t>Mandatory substring check for .properties files</t>
+  </si>
+  <si>
+    <t>FAIL</t>
+  </si>
+  <si>
+    <t>• Validation failures:
+• Token 'apiId' not found in file: Properties\OCP\01\ITE.properties (case-sensitive: true)
+• Token 'apiId' not found in file: Properties\OCP\01\PROD.properties (case-sensitive: true)
+• Token 'apiId' not found in file: Properties\OCP\01\TDV.properties (case-sensitive: true)
+• Token 'apiId' not found in file: Properties\OCP\ITE.properties (case-sensitive: true)
+• Token 'apiId' not found in file: Properties\OCP\PROD.properties (case-sensitive: true)
+• Token 'apiId' not found in file: Properties\OCP\TDV.properties (case-sensitive: true)</t>
   </si>
   <si>
     <t>RULE-101</t>
   </si>
   <si>
-    <t>Check for environment config property</t>
-  </si>
-  <si>
-    <t>FAIL</t>
+    <t>Mandatory name-value check for .properties files</t>
   </si>
   <si>
     <t>• Validation failures:
+• Property 'LogJsonFormat' found but value does not match expected values [true, false] in file: Properties\OCP\01\ITE.properties
 • Property 'anotherpropertycheck' not found in file: Properties\OCP\01\ITE.properties
+• Property 'LogJsonFormat' found but value does not match expected values [true, false] in file: Properties\OCP\01\PROD.properties
 • Property 'anotherpropertycheck' not found in file: Properties\OCP\01\PROD.properties
 • Property 'LogJsonFormat' not found in file: Properties\OCP\01\TDV.properties
 • Property 'anotherpropertycheck' not found in file: Properties\OCP\01\TDV.properties
+• Property 'LogJsonFormat' found but value does not match expected values [true, false] in file: Properties\OCP\ITE.properties
 • Property 'anotherpropertycheck' not found in file: Properties\OCP\ITE.properties
+• Property 'LogJsonFormat' found but value does not match expected values [true, false] in file: Properties\OCP\PROD.properties
 • Property 'anotherpropertycheck' not found in file: Properties\OCP\PROD.properties
 • Property 'LogJsonFormat' not found in file: Properties\OCP\TDV.properties
 • Property 'anotherpropertycheck' not found in file: Properties\OCP\TDV.properties</t>
@@ -67,28 +92,30 @@
     <t>RULE-102</t>
   </si>
   <si>
-    <t>Check for required policy properties</t>
+    <t>Mandatory substring check for .policy files</t>
   </si>
   <si>
     <t>• Validation failures:
-• Property 'rakspolicyproperty2.policypropname' not found in file: Policies\TDV.policy</t>
+• Token 'http.protocols=HTTPS' not found in file: Policies\TDV.policy (case-sensitive: true)
+• Token 'http.private.port=8081' not found in file: Policies\TDV.policy (case-sensitive: true)</t>
   </si>
   <si>
     <t>RULE-103</t>
   </si>
   <si>
-    <t>Validate policy files for correct policy details</t>
+    <t>Mandatory name-value check for .policy files</t>
   </si>
   <si>
     <t>• Validation failures:
-• Pattern 'headerinjection.policy.applied=true' not matched in file: Policies\TDV.policy
-• Pattern 'headerinjection.policy.version=1.3.2' not matched in file: Policies\TDV.policy
-• Pattern 'ratelimit.policy.applied=true' not matched in file: Policies\TDV.policy
-• Pattern 'ratelimit.policy.version=1.4.2' not matched in file: Policies\TDV.policy
-• Pattern 'truist.compositeauthn.policy.applied=true' not matched in file: Policies\TDV.policy
-• Pattern 'truist.compositeauthn.policy.version=3.0.0' not matched in file: Policies\TDV.policy
-• Pattern 'truist.authz.policy.applied=true' not matched in file: Policies\TDV.policy
-• Pattern 'truist.authz.policy.version=3.0.0' not matched in file: Policies\TDV.policy</t>
+• Property 'headerinjection.policy.applied' not found in file: Policies\TDV.policy
+• Property 'headerinjection.policy.version' not found in file: Policies\TDV.policy
+• Property 'ratelimit.policy.applied' not found in file: Policies\TDV.policy
+• Property 'ratelimit.policy.version' not found in file: Policies\TDV.policy
+• Property 'truist.compositeauthn.policy.applied' not found in file: Policies\TDV.policy
+• Property 'truist.compositeauthn.policy.version' not found in file: Policies\TDV.policy
+• Property 'truist.authz.policy.applied' not found in file: Policies\TDV.policy
+• Property 'truist.authz.policy.version' not found in file: Policies\TDV.policy
+• Property 'assetType' not found in file: Policies\TDV.policy</t>
   </si>
   <si>
     <t>RULE-104</t>
@@ -191,7 +218,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -239,71 +266,105 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="3">
+      <c r="A3" t="s" s="2">
         <v>10</v>
       </c>
-      <c r="B3" t="s" s="3">
+      <c r="B3" t="s" s="2">
         <v>11</v>
       </c>
-      <c r="C3" t="s" s="3">
-        <v>7</v>
-      </c>
-      <c r="D3" t="s" s="3">
-        <v>12</v>
-      </c>
-      <c r="E3" t="s" s="3">
-        <v>13</v>
+      <c r="C3" t="s" s="2">
+        <v>7</v>
+      </c>
+      <c r="D3" t="s" s="2">
+        <v>8</v>
+      </c>
+      <c r="E3" t="s" s="2">
+        <v>9</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="3">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B4" t="s" s="3">
+        <v>13</v>
+      </c>
+      <c r="C4" t="s" s="3">
+        <v>7</v>
+      </c>
+      <c r="D4" t="s" s="3">
+        <v>14</v>
+      </c>
+      <c r="E4" t="s" s="3">
         <v>15</v>
-      </c>
-      <c r="C4" t="s" s="3">
-        <v>7</v>
-      </c>
-      <c r="D4" t="s" s="3">
-        <v>12</v>
-      </c>
-      <c r="E4" t="s" s="3">
-        <v>16</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="3">
+        <v>16</v>
+      </c>
+      <c r="B5" t="s" s="3">
         <v>17</v>
       </c>
-      <c r="B5" t="s" s="3">
+      <c r="C5" t="s" s="3">
+        <v>7</v>
+      </c>
+      <c r="D5" t="s" s="3">
+        <v>14</v>
+      </c>
+      <c r="E5" t="s" s="3">
         <v>18</v>
-      </c>
-      <c r="C5" t="s" s="3">
-        <v>7</v>
-      </c>
-      <c r="D5" t="s" s="3">
-        <v>12</v>
-      </c>
-      <c r="E5" t="s" s="3">
-        <v>19</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="3">
+        <v>19</v>
+      </c>
+      <c r="B6" t="s" s="3">
         <v>20</v>
       </c>
-      <c r="B6" t="s" s="3">
+      <c r="C6" t="s" s="3">
+        <v>7</v>
+      </c>
+      <c r="D6" t="s" s="3">
+        <v>14</v>
+      </c>
+      <c r="E6" t="s" s="3">
         <v>21</v>
       </c>
-      <c r="C6" t="s" s="3">
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="3">
         <v>22</v>
       </c>
-      <c r="D6" t="s" s="3">
-        <v>12</v>
-      </c>
-      <c r="E6" t="s" s="3">
+      <c r="B7" t="s" s="3">
         <v>23</v>
+      </c>
+      <c r="C7" t="s" s="3">
+        <v>7</v>
+      </c>
+      <c r="D7" t="s" s="3">
+        <v>14</v>
+      </c>
+      <c r="E7" t="s" s="3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s" s="3">
+        <v>25</v>
+      </c>
+      <c r="B8" t="s" s="3">
+        <v>26</v>
+      </c>
+      <c r="C8" t="s" s="3">
+        <v>27</v>
+      </c>
+      <c r="D8" t="s" s="3">
+        <v>14</v>
+      </c>
+      <c r="E8" t="s" s="3">
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/testData/muleguard-reports/rakstestmuleapi_config_20251128/report.xlsx
+++ b/testData/muleguard-reports/rakstestmuleapi_config_20251128/report.xlsx
@@ -75,15 +75,15 @@
   </si>
   <si>
     <t>• Validation failures:
-• Property 'LogJsonFormat' found but value does not match expected values [true, false] in file: Properties\OCP\01\ITE.properties
+• Property 'LogJsonFormat' found but value does not match expected values [true, false, test] in file: Properties\OCP\01\ITE.properties
 • Property 'anotherpropertycheck' not found in file: Properties\OCP\01\ITE.properties
-• Property 'LogJsonFormat' found but value does not match expected values [true, false] in file: Properties\OCP\01\PROD.properties
+• Property 'LogJsonFormat' found but value does not match expected values [true, false, test] in file: Properties\OCP\01\PROD.properties
 • Property 'anotherpropertycheck' not found in file: Properties\OCP\01\PROD.properties
 • Property 'LogJsonFormat' not found in file: Properties\OCP\01\TDV.properties
 • Property 'anotherpropertycheck' not found in file: Properties\OCP\01\TDV.properties
-• Property 'LogJsonFormat' found but value does not match expected values [true, false] in file: Properties\OCP\ITE.properties
+• Property 'LogJsonFormat' found but value does not match expected values [true, false, test] in file: Properties\OCP\ITE.properties
 • Property 'anotherpropertycheck' not found in file: Properties\OCP\ITE.properties
-• Property 'LogJsonFormat' found but value does not match expected values [true, false] in file: Properties\OCP\PROD.properties
+• Property 'LogJsonFormat' found but value does not match expected values [true, false, test] in file: Properties\OCP\PROD.properties
 • Property 'anotherpropertycheck' not found in file: Properties\OCP\PROD.properties
 • Property 'LogJsonFormat' not found in file: Properties\OCP\TDV.properties
 • Property 'anotherpropertycheck' not found in file: Properties\OCP\TDV.properties</t>

--- a/testData/muleguard-reports/rakstestmuleapi_config_20251128/report.xlsx
+++ b/testData/muleguard-reports/rakstestmuleapi_config_20251128/report.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="37">
   <si>
     <t>Rule ID</t>
   </si>
@@ -50,6 +50,30 @@
     <t>Optional name-value check for .policy files</t>
   </si>
   <si>
+    <t>RULE-107</t>
+  </si>
+  <si>
+    <t>Forbidden substring check for .properties files</t>
+  </si>
+  <si>
+    <t>RULE-108</t>
+  </si>
+  <si>
+    <t>Forbidden substring check for .policy files</t>
+  </si>
+  <si>
+    <t>RULE-109</t>
+  </si>
+  <si>
+    <t>Forbidden regex pattern (ip addresses) check in .properties files</t>
+  </si>
+  <si>
+    <t>RULE-110</t>
+  </si>
+  <si>
+    <t>Forbidden regex pattern (ip addresses) check in .policy files</t>
+  </si>
+  <si>
     <t>RULE-100</t>
   </si>
   <si>
@@ -60,12 +84,12 @@
   </si>
   <si>
     <t>• Validation failures:
-• Token 'apiId' not found in file: Properties\OCP\01\ITE.properties (case-sensitive: true)
-• Token 'apiId' not found in file: Properties\OCP\01\PROD.properties (case-sensitive: true)
-• Token 'apiId' not found in file: Properties\OCP\01\TDV.properties (case-sensitive: true)
-• Token 'apiId' not found in file: Properties\OCP\ITE.properties (case-sensitive: true)
-• Token 'apiId' not found in file: Properties\OCP\PROD.properties (case-sensitive: true)
-• Token 'apiId' not found in file: Properties\OCP\TDV.properties (case-sensitive: true)</t>
+• Required token 'apiId' not found in file: Properties\OCP\01\ITE.properties (case-sensitive: true)
+• Required token 'apiId' not found in file: Properties\OCP\01\PROD.properties (case-sensitive: true)
+• Required token 'apiId' not found in file: Properties\OCP\01\TDV.properties (case-sensitive: true)
+• Required token 'apiId' not found in file: Properties\OCP\ITE.properties (case-sensitive: true)
+• Required token 'apiId' not found in file: Properties\OCP\PROD.properties (case-sensitive: true)
+• Required token 'apiId' not found in file: Properties\OCP\TDV.properties (case-sensitive: true)</t>
   </si>
   <si>
     <t>RULE-101</t>
@@ -75,15 +99,15 @@
   </si>
   <si>
     <t>• Validation failures:
-• Property 'LogJsonFormat' found but value does not match expected values [true, false, test] in file: Properties\OCP\01\ITE.properties
+• Property 'LogJsonFormat' found but value does not match expected values [true, false] in file: Properties\OCP\01\ITE.properties
 • Property 'anotherpropertycheck' not found in file: Properties\OCP\01\ITE.properties
-• Property 'LogJsonFormat' found but value does not match expected values [true, false, test] in file: Properties\OCP\01\PROD.properties
+• Property 'LogJsonFormat' found but value does not match expected values [true, false] in file: Properties\OCP\01\PROD.properties
 • Property 'anotherpropertycheck' not found in file: Properties\OCP\01\PROD.properties
 • Property 'LogJsonFormat' not found in file: Properties\OCP\01\TDV.properties
 • Property 'anotherpropertycheck' not found in file: Properties\OCP\01\TDV.properties
-• Property 'LogJsonFormat' found but value does not match expected values [true, false, test] in file: Properties\OCP\ITE.properties
+• Property 'LogJsonFormat' found but value does not match expected values [true, false] in file: Properties\OCP\ITE.properties
 • Property 'anotherpropertycheck' not found in file: Properties\OCP\ITE.properties
-• Property 'LogJsonFormat' found but value does not match expected values [true, false, test] in file: Properties\OCP\PROD.properties
+• Property 'LogJsonFormat' found but value does not match expected values [true, false] in file: Properties\OCP\PROD.properties
 • Property 'anotherpropertycheck' not found in file: Properties\OCP\PROD.properties
 • Property 'LogJsonFormat' not found in file: Properties\OCP\TDV.properties
 • Property 'anotherpropertycheck' not found in file: Properties\OCP\TDV.properties</t>
@@ -96,8 +120,8 @@
   </si>
   <si>
     <t>• Validation failures:
-• Token 'http.protocols=HTTPS' not found in file: Policies\TDV.policy (case-sensitive: true)
-• Token 'http.private.port=8081' not found in file: Policies\TDV.policy (case-sensitive: true)</t>
+• Required token 'http.protocols=HTTPS' not found in file: Policies\TDV.policy (case-sensitive: true)
+• Required token 'http.private.port=8081' not found in file: Policies\TDV.policy (case-sensitive: true)</t>
   </si>
   <si>
     <t>RULE-103</t>
@@ -218,14 +242,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="8.6640625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="42.18359375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="52.0" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="8.24609375" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="6.06640625" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="178.54296875" customWidth="true" bestFit="true"/>
@@ -283,88 +307,156 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s" s="3">
+      <c r="A4" t="s" s="2">
         <v>12</v>
       </c>
-      <c r="B4" t="s" s="3">
+      <c r="B4" t="s" s="2">
         <v>13</v>
       </c>
-      <c r="C4" t="s" s="3">
-        <v>7</v>
-      </c>
-      <c r="D4" t="s" s="3">
+      <c r="C4" t="s" s="2">
+        <v>7</v>
+      </c>
+      <c r="D4" t="s" s="2">
+        <v>8</v>
+      </c>
+      <c r="E4" t="s" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="2">
         <v>14</v>
       </c>
-      <c r="E4" t="s" s="3">
+      <c r="B5" t="s" s="2">
         <v>15</v>
       </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s" s="3">
+      <c r="C5" t="s" s="2">
+        <v>7</v>
+      </c>
+      <c r="D5" t="s" s="2">
+        <v>8</v>
+      </c>
+      <c r="E5" t="s" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="2">
         <v>16</v>
       </c>
-      <c r="B5" t="s" s="3">
+      <c r="B6" t="s" s="2">
         <v>17</v>
       </c>
-      <c r="C5" t="s" s="3">
-        <v>7</v>
-      </c>
-      <c r="D5" t="s" s="3">
-        <v>14</v>
-      </c>
-      <c r="E5" t="s" s="3">
+      <c r="C6" t="s" s="2">
+        <v>7</v>
+      </c>
+      <c r="D6" t="s" s="2">
+        <v>8</v>
+      </c>
+      <c r="E6" t="s" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="2">
         <v>18</v>
       </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s" s="3">
+      <c r="B7" t="s" s="2">
         <v>19</v>
       </c>
-      <c r="B6" t="s" s="3">
-        <v>20</v>
-      </c>
-      <c r="C6" t="s" s="3">
-        <v>7</v>
-      </c>
-      <c r="D6" t="s" s="3">
-        <v>14</v>
-      </c>
-      <c r="E6" t="s" s="3">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s" s="3">
-        <v>22</v>
-      </c>
-      <c r="B7" t="s" s="3">
-        <v>23</v>
-      </c>
-      <c r="C7" t="s" s="3">
-        <v>7</v>
-      </c>
-      <c r="D7" t="s" s="3">
-        <v>14</v>
-      </c>
-      <c r="E7" t="s" s="3">
-        <v>24</v>
+      <c r="C7" t="s" s="2">
+        <v>7</v>
+      </c>
+      <c r="D7" t="s" s="2">
+        <v>8</v>
+      </c>
+      <c r="E7" t="s" s="2">
+        <v>9</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="3">
+        <v>20</v>
+      </c>
+      <c r="B8" t="s" s="3">
+        <v>21</v>
+      </c>
+      <c r="C8" t="s" s="3">
+        <v>7</v>
+      </c>
+      <c r="D8" t="s" s="3">
+        <v>22</v>
+      </c>
+      <c r="E8" t="s" s="3">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s" s="3">
+        <v>24</v>
+      </c>
+      <c r="B9" t="s" s="3">
         <v>25</v>
       </c>
-      <c r="B8" t="s" s="3">
+      <c r="C9" t="s" s="3">
+        <v>7</v>
+      </c>
+      <c r="D9" t="s" s="3">
+        <v>22</v>
+      </c>
+      <c r="E9" t="s" s="3">
         <v>26</v>
       </c>
-      <c r="C8" t="s" s="3">
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="3">
         <v>27</v>
       </c>
-      <c r="D8" t="s" s="3">
-        <v>14</v>
-      </c>
-      <c r="E8" t="s" s="3">
+      <c r="B10" t="s" s="3">
         <v>28</v>
+      </c>
+      <c r="C10" t="s" s="3">
+        <v>7</v>
+      </c>
+      <c r="D10" t="s" s="3">
+        <v>22</v>
+      </c>
+      <c r="E10" t="s" s="3">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s" s="3">
+        <v>30</v>
+      </c>
+      <c r="B11" t="s" s="3">
+        <v>31</v>
+      </c>
+      <c r="C11" t="s" s="3">
+        <v>7</v>
+      </c>
+      <c r="D11" t="s" s="3">
+        <v>22</v>
+      </c>
+      <c r="E11" t="s" s="3">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s" s="3">
+        <v>33</v>
+      </c>
+      <c r="B12" t="s" s="3">
+        <v>34</v>
+      </c>
+      <c r="C12" t="s" s="3">
+        <v>35</v>
+      </c>
+      <c r="D12" t="s" s="3">
+        <v>22</v>
+      </c>
+      <c r="E12" t="s" s="3">
+        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/testData/muleguard-reports/rakstestmuleapi_config_20251128/report.xlsx
+++ b/testData/muleguard-reports/rakstestmuleapi_config_20251128/report.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="38">
   <si>
     <t>Rule ID</t>
   </si>
@@ -66,12 +66,6 @@
   </si>
   <si>
     <t>Forbidden regex pattern (ip addresses) check in .properties files</t>
-  </si>
-  <si>
-    <t>RULE-110</t>
-  </si>
-  <si>
-    <t>Forbidden regex pattern (ip addresses) check in .policy files</t>
   </si>
   <si>
     <t>RULE-100</t>
@@ -159,6 +153,15 @@
 Files scanned: Policies\TDV.policy
 Expected pattern: truist.authz.policy.clientIDmap.&lt;METHOD&gt;:/&lt;path&gt;=&lt;id&gt;:&lt;name&gt;;&lt;id&gt;:&lt;name&gt;;...
 Check that your files contain the required properties with correct format.</t>
+  </si>
+  <si>
+    <t>RULE-110</t>
+  </si>
+  <si>
+    <t>Forbidden regex pattern (ip addresses) check in .policy files</t>
+  </si>
+  <si>
+    <t>• Required token(s) not found in files matching: **/Policies/*.policy, **/Policies/**/*.policy</t>
   </si>
 </sst>
 </file>
@@ -358,105 +361,105 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="s" s="2">
+      <c r="A7" t="s" s="3">
         <v>18</v>
       </c>
-      <c r="B7" t="s" s="2">
+      <c r="B7" t="s" s="3">
         <v>19</v>
       </c>
-      <c r="C7" t="s" s="2">
-        <v>7</v>
-      </c>
-      <c r="D7" t="s" s="2">
-        <v>8</v>
-      </c>
-      <c r="E7" t="s" s="2">
-        <v>9</v>
+      <c r="C7" t="s" s="3">
+        <v>7</v>
+      </c>
+      <c r="D7" t="s" s="3">
+        <v>20</v>
+      </c>
+      <c r="E7" t="s" s="3">
+        <v>21</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="3">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s" s="3">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s" s="3">
         <v>7</v>
       </c>
       <c r="D8" t="s" s="3">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E8" t="s" s="3">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="3">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B9" t="s" s="3">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s" s="3">
         <v>7</v>
       </c>
       <c r="D9" t="s" s="3">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E9" t="s" s="3">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="3">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B10" t="s" s="3">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C10" t="s" s="3">
         <v>7</v>
       </c>
       <c r="D10" t="s" s="3">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E10" t="s" s="3">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="3">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B11" t="s" s="3">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C11" t="s" s="3">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="D11" t="s" s="3">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E11" t="s" s="3">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="3">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B12" t="s" s="3">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C12" t="s" s="3">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="D12" t="s" s="3">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E12" t="s" s="3">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
